--- a/log_history/Y4_B2526_Clin_patho_scanner1761807897046_3ff15c73a2d1efe6a602566fb9a1e4afdb355d21408d74ab71983e8561e56a9b.xlsx
+++ b/log_history/Y4_B2526_Clin_patho_scanner1761807897046_3ff15c73a2d1efe6a602566fb9a1e4afdb355d21408d74ab71983e8561e56a9b.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Clin_patho" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y4_B2526_Clin_patho_scanner1761807897046_3ff15c73a2d1efe6a602566fb9a1e4afdb355d21408d74ab71983e8561e56a9b.xlsx
+++ b/log_history/Y4_B2526_Clin_patho_scanner1761807897046_3ff15c73a2d1efe6a602566fb9a1e4afdb355d21408d74ab71983e8561e56a9b.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Clin_patho" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
